--- a/web/static/dados/tabela_alocacoes.xlsx
+++ b/web/static/dados/tabela_alocacoes.xlsx
@@ -508,7 +508,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>['209-B']</t>
+          <t>['210-B']</t>
         </is>
       </c>
     </row>
@@ -544,7 +544,7 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>['209-B']</t>
+          <t>['210-B']</t>
         </is>
       </c>
     </row>
@@ -580,7 +580,7 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>['209-B']</t>
+          <t>['210-B']</t>
         </is>
       </c>
     </row>
@@ -616,7 +616,7 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>['209-B']</t>
+          <t>['210-B']</t>
         </is>
       </c>
     </row>
@@ -652,7 +652,7 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>['304-A']</t>
+          <t>['301-A']</t>
         </is>
       </c>
     </row>
@@ -688,7 +688,7 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>['304-A']</t>
+          <t>['301-A']</t>
         </is>
       </c>
     </row>
@@ -724,7 +724,7 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>['304-A']</t>
+          <t>['301-A']</t>
         </is>
       </c>
     </row>
@@ -760,7 +760,7 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>['304-A']</t>
+          <t>['302-A']</t>
         </is>
       </c>
     </row>
@@ -796,7 +796,7 @@
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>['304-A']</t>
+          <t>['302-A']</t>
         </is>
       </c>
     </row>
@@ -832,7 +832,7 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>['305-A']</t>
+          <t>['301-A']</t>
         </is>
       </c>
     </row>
@@ -868,7 +868,7 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>['305-A']</t>
+          <t>['301-A']</t>
         </is>
       </c>
     </row>
@@ -904,7 +904,7 @@
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>['305-A']</t>
+          <t>['301-A']</t>
         </is>
       </c>
     </row>
@@ -940,7 +940,7 @@
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>['305-A']</t>
+          <t>['301-A']</t>
         </is>
       </c>
     </row>
@@ -976,7 +976,7 @@
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>['305-A']</t>
+          <t>['301-A']</t>
         </is>
       </c>
     </row>
@@ -1012,7 +1012,7 @@
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>['305-A']</t>
+          <t>['301-A']</t>
         </is>
       </c>
     </row>
@@ -1048,7 +1048,7 @@
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>['305-A']</t>
+          <t>['301-A']</t>
         </is>
       </c>
     </row>
@@ -1084,7 +1084,7 @@
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>['302-B']</t>
+          <t>['305-B']</t>
         </is>
       </c>
     </row>
@@ -1120,7 +1120,7 @@
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>['301-B']</t>
+          <t>['304-B']</t>
         </is>
       </c>
     </row>
@@ -1156,7 +1156,7 @@
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>['301-B']</t>
+          <t>['304-B']</t>
         </is>
       </c>
     </row>
@@ -1192,7 +1192,7 @@
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>['302-B']</t>
+          <t>['304-B']</t>
         </is>
       </c>
     </row>
@@ -1228,7 +1228,7 @@
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>['301-B']</t>
+          <t>['305-B']</t>
         </is>
       </c>
     </row>
@@ -1264,7 +1264,7 @@
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>['301-B']</t>
+          <t>['304-B']</t>
         </is>
       </c>
     </row>
@@ -1336,7 +1336,7 @@
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>['304-B']</t>
+          <t>['302-B']</t>
         </is>
       </c>
     </row>
@@ -1372,7 +1372,7 @@
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>['301-B']</t>
+          <t>['303-B']</t>
         </is>
       </c>
     </row>
@@ -1408,7 +1408,7 @@
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>['301-B']</t>
+          <t>['302-B']</t>
         </is>
       </c>
     </row>
@@ -1444,7 +1444,7 @@
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>['301-B']</t>
+          <t>['302-B']</t>
         </is>
       </c>
     </row>
@@ -1480,7 +1480,7 @@
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>['301-B']</t>
+          <t>['302-B']</t>
         </is>
       </c>
     </row>
@@ -1516,7 +1516,7 @@
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>['301-B']</t>
+          <t>['303-B']</t>
         </is>
       </c>
     </row>
@@ -1588,7 +1588,7 @@
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>['308-A']</t>
+          <t>['309-A']</t>
         </is>
       </c>
     </row>
@@ -1624,7 +1624,7 @@
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>['303-A']</t>
+          <t>['304-A']</t>
         </is>
       </c>
     </row>
@@ -1660,7 +1660,7 @@
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>['302-A']</t>
+          <t>['305-A']</t>
         </is>
       </c>
     </row>
@@ -1696,7 +1696,7 @@
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>['302-A']</t>
+          <t>['305-A']</t>
         </is>
       </c>
     </row>
@@ -1732,7 +1732,7 @@
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>['302-A']</t>
+          <t>['305-A']</t>
         </is>
       </c>
     </row>
@@ -1768,7 +1768,7 @@
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>['302-A']</t>
+          <t>['305-A']</t>
         </is>
       </c>
     </row>
@@ -1804,7 +1804,7 @@
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>['201-B']</t>
+          <t>['206-B']</t>
         </is>
       </c>
     </row>
@@ -1840,7 +1840,7 @@
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>['201-B']</t>
+          <t>['206-B']</t>
         </is>
       </c>
     </row>
@@ -1876,7 +1876,7 @@
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>['201-B']</t>
+          <t>['206-B']</t>
         </is>
       </c>
     </row>
@@ -1912,7 +1912,7 @@
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>['201-B']</t>
+          <t>['206-B']</t>
         </is>
       </c>
     </row>
@@ -1948,7 +1948,7 @@
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>['201-B']</t>
+          <t>['206-B']</t>
         </is>
       </c>
     </row>
@@ -1984,7 +1984,7 @@
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>['201-B']</t>
+          <t>['206-B']</t>
         </is>
       </c>
     </row>
@@ -2020,7 +2020,7 @@
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>['201-B']</t>
+          <t>['206-B']</t>
         </is>
       </c>
     </row>
